--- a/00_config/xlsx/cms.xlsx
+++ b/00_config/xlsx/cms.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risheng/bfd/新城/code/数据接入/工作流/cms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\AutoETL\00_config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD02EBD8-F6B6-3B41-9777-EFB1C450E64F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2102FA0-A305-49E8-9916-0E451CDDBE18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="460" windowWidth="28660" windowHeight="18540" xr2:uid="{65722F6D-870A-214B-92B7-7C90CEF57E26}"/>
+    <workbookView minimized="1" xWindow="690" yWindow="375" windowWidth="16200" windowHeight="15570" activeTab="1" xr2:uid="{65722F6D-870A-214B-92B7-7C90CEF57E26}"/>
   </bookViews>
   <sheets>
     <sheet name="作业属性设置" sheetId="1" r:id="rId1"/>
     <sheet name="依赖关系设置" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -751,16 +756,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD56F9A-E027-9A40-9F71-EDCD3F269DE3}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="7" max="7" width="37.1640625" customWidth="1"/>
-    <col min="8" max="8" width="44.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="37.125" customWidth="1"/>
+    <col min="8" max="8" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18">
@@ -810,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18">
+    <row r="2" spans="1:15" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -842,7 +848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18">
+    <row r="3" spans="1:15" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -874,7 +880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18">
+    <row r="4" spans="1:15" ht="17.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -906,7 +912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18">
+    <row r="5" spans="1:15" ht="17.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -938,7 +944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18">
+    <row r="6" spans="1:15" ht="17.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -970,7 +976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18">
+    <row r="7" spans="1:15" ht="17.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18">
+    <row r="8" spans="1:15" ht="17.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18">
+    <row r="9" spans="1:15" ht="17.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18">
+    <row r="10" spans="1:15" ht="17.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18">
+    <row r="11" spans="1:15" ht="17.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1108,7 +1114,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18">
+    <row r="12" spans="1:15" ht="17.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1118,7 +1124,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18">
+    <row r="13" spans="1:15" ht="17.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1128,7 +1134,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18">
+    <row r="14" spans="1:15" ht="17.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1138,7 +1144,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18">
+    <row r="15" spans="1:15" ht="17.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1148,7 +1154,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18">
+    <row r="16" spans="1:15" ht="17.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1158,7 +1164,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="18">
+    <row r="17" spans="1:10" ht="17.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1168,7 +1174,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="18">
+    <row r="18" spans="1:10" ht="17.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1178,7 +1184,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="18">
+    <row r="19" spans="1:10" ht="17.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1188,7 +1194,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="18">
+    <row r="20" spans="1:10" ht="17.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1198,7 +1204,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="18">
+    <row r="21" spans="1:10" ht="17.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1208,7 +1214,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="18">
+    <row r="22" spans="1:10" ht="17.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1218,7 +1224,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="18">
+    <row r="23" spans="1:10" ht="17.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1228,7 +1234,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="18">
+    <row r="24" spans="1:10" ht="17.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1238,7 +1244,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="18">
+    <row r="25" spans="1:10" ht="17.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1248,7 +1254,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="18">
+    <row r="26" spans="1:10" ht="17.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1258,7 +1264,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="18">
+    <row r="27" spans="1:10" ht="17.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1268,7 +1274,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="18">
+    <row r="28" spans="1:10" ht="17.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1278,7 +1284,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="18">
+    <row r="29" spans="1:10" ht="17.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1288,7 +1294,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="18">
+    <row r="30" spans="1:10" ht="17.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1298,7 +1304,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="18">
+    <row r="31" spans="1:10" ht="17.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1308,7 +1314,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="18">
+    <row r="32" spans="1:10" ht="17.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1318,7 +1324,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="18">
+    <row r="33" spans="1:10" ht="17.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1328,7 +1334,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="18">
+    <row r="34" spans="1:10" ht="17.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1338,7 +1344,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="18">
+    <row r="35" spans="1:10" ht="17.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1348,7 +1354,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="18">
+    <row r="36" spans="1:10" ht="17.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1358,7 +1364,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="18">
+    <row r="37" spans="1:10" ht="17.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1368,7 +1374,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="18">
+    <row r="38" spans="1:10" ht="17.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1378,7 +1384,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="18">
+    <row r="39" spans="1:10" ht="17.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1388,7 +1394,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="18">
+    <row r="40" spans="1:10" ht="17.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1398,7 +1404,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="18">
+    <row r="41" spans="1:10" ht="17.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1408,7 +1414,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="18">
+    <row r="42" spans="1:10" ht="17.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1418,7 +1424,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="18">
+    <row r="43" spans="1:10" ht="17.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1428,7 +1434,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="18">
+    <row r="44" spans="1:10" ht="17.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1438,7 +1444,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="18">
+    <row r="45" spans="1:10" ht="17.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1448,187 +1454,187 @@
       <c r="I45" s="6"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="17">
+    <row r="46" spans="1:10" ht="16.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="17">
+    <row r="47" spans="1:10" ht="16.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="17">
+    <row r="48" spans="1:10" ht="16.5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" ht="17">
+    <row r="49" spans="1:2" ht="16.5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" ht="17">
+    <row r="50" spans="1:2" ht="16.5">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" ht="17">
+    <row r="51" spans="1:2" ht="16.5">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" ht="17">
+    <row r="52" spans="1:2" ht="16.5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" ht="17">
+    <row r="53" spans="1:2" ht="16.5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" ht="17">
+    <row r="54" spans="1:2" ht="16.5">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" ht="17">
+    <row r="55" spans="1:2" ht="16.5">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" ht="17">
+    <row r="56" spans="1:2" ht="16.5">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" ht="17">
+    <row r="57" spans="1:2" ht="16.5">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" ht="17">
+    <row r="58" spans="1:2" ht="16.5">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" ht="17">
+    <row r="59" spans="1:2" ht="16.5">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" ht="17">
+    <row r="60" spans="1:2" ht="16.5">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" ht="17">
+    <row r="61" spans="1:2" ht="16.5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" ht="17">
+    <row r="62" spans="1:2" ht="16.5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" ht="17">
+    <row r="63" spans="1:2" ht="16.5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" ht="17">
+    <row r="64" spans="1:2" ht="16.5">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" ht="17">
+    <row r="65" spans="1:2" ht="16.5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" ht="17">
+    <row r="66" spans="1:2" ht="16.5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" ht="17">
+    <row r="67" spans="1:2" ht="16.5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" ht="17">
+    <row r="68" spans="1:2" ht="16.5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" ht="17">
+    <row r="69" spans="1:2" ht="16.5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" ht="17">
+    <row r="70" spans="1:2" ht="16.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" ht="17">
+    <row r="71" spans="1:2" ht="16.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" ht="17">
+    <row r="72" spans="1:2" ht="16.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" ht="17">
+    <row r="73" spans="1:2" ht="16.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" ht="17">
+    <row r="74" spans="1:2" ht="16.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" ht="17">
+    <row r="75" spans="1:2" ht="16.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" ht="17">
+    <row r="76" spans="1:2" ht="16.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" ht="17">
+    <row r="77" spans="1:2" ht="16.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" ht="17">
+    <row r="78" spans="1:2" ht="16.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" ht="17">
+    <row r="79" spans="1:2" ht="16.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" ht="17">
+    <row r="80" spans="1:2" ht="16.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" ht="17">
+    <row r="81" spans="1:2" ht="16.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" ht="17">
+    <row r="82" spans="1:2" ht="16.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" ht="17">
+    <row r="83" spans="1:2" ht="16.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" ht="17">
+    <row r="84" spans="1:2" ht="16.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" ht="17">
+    <row r="85" spans="1:2" ht="16.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" ht="17">
+    <row r="86" spans="1:2" ht="16.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" ht="17">
+    <row r="87" spans="1:2" ht="16.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" ht="17">
+    <row r="88" spans="1:2" ht="16.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="17">
+    <row r="89" spans="1:2" ht="16.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" ht="17">
+    <row r="90" spans="1:2" ht="16.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" ht="17">
+    <row r="91" spans="1:2" ht="16.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
     </row>
@@ -1651,16 +1657,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C83A73-C631-A74B-9BB8-4C3FDB9D6379}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
@@ -1692,7 +1698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1860,145 +1866,146 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" ht="17">
+    <row r="17" spans="1:2" ht="16.5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="17">
+    <row r="18" spans="1:2" ht="16.5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="17">
+    <row r="19" spans="1:2" ht="16.5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" ht="17">
+    <row r="20" spans="1:2" ht="16.5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" ht="17">
+    <row r="21" spans="1:2" ht="16.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" ht="17">
+    <row r="22" spans="1:2" ht="16.5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="17">
+    <row r="23" spans="1:2" ht="16.5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" ht="17">
+    <row r="24" spans="1:2" ht="16.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" ht="17">
+    <row r="25" spans="1:2" ht="16.5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" ht="17">
+    <row r="26" spans="1:2" ht="16.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" ht="17">
+    <row r="27" spans="1:2" ht="16.5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" ht="17">
+    <row r="28" spans="1:2" ht="16.5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" ht="17">
+    <row r="29" spans="1:2" ht="16.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" ht="17">
+    <row r="30" spans="1:2" ht="16.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" ht="17">
+    <row r="31" spans="1:2" ht="16.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" ht="17">
+    <row r="32" spans="1:2" ht="16.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" ht="17">
+    <row r="33" spans="1:2" ht="16.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="17">
+    <row r="34" spans="1:2" ht="16.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="17">
+    <row r="35" spans="1:2" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="17">
+    <row r="36" spans="1:2" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" ht="17">
+    <row r="37" spans="1:2" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" ht="17">
+    <row r="38" spans="1:2" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" ht="17">
+    <row r="39" spans="1:2" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" ht="17">
+    <row r="40" spans="1:2" ht="16.5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" ht="17">
+    <row r="41" spans="1:2" ht="16.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" ht="17">
+    <row r="42" spans="1:2" ht="16.5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" ht="17">
+    <row r="43" spans="1:2" ht="16.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" ht="17">
+    <row r="44" spans="1:2" ht="16.5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" ht="17">
+    <row r="45" spans="1:2" ht="16.5">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" ht="17">
+    <row r="46" spans="1:2" ht="16.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" ht="17">
+    <row r="47" spans="1:2" ht="16.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>